--- a/Graph.xlsx
+++ b/Graph.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alecb\Google Drive\Semestre 5\MAC\Labos\Labo 4\MAC_Labo4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2921135-B913-4889-BCF0-5707FF31AF0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E66A9B1-9E2D-4BBE-A6C1-C4151FDC5ECF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9D87ED3B-DA3D-43CC-BD71-06862C873EAB}"/>
   </bookViews>
@@ -34,40 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="55">
-  <si>
-    <t>0.1</t>
-  </si>
-  <si>
-    <t>0.0</t>
-  </si>
-  <si>
-    <t>0.2</t>
-  </si>
-  <si>
-    <t>0.3</t>
-  </si>
-  <si>
-    <t>0.4</t>
-  </si>
-  <si>
-    <t>0.5</t>
-  </si>
-  <si>
-    <t>0.6</t>
-  </si>
-  <si>
-    <t>0.7</t>
-  </si>
-  <si>
-    <t>0.8</t>
-  </si>
-  <si>
-    <t>0.9</t>
-  </si>
-  <si>
-    <t>1.0</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Standard</t>
   </si>
@@ -80,131 +47,14 @@
   <si>
     <t>English with custom stopwords</t>
   </si>
-  <si>
-    <t>0.1057780949438495</t>
-  </si>
-  <si>
-    <t>0.1008637459096406</t>
-  </si>
-  <si>
-    <t>0.09669352606709042</t>
-  </si>
-  <si>
-    <t>0.0844867415906721</t>
-  </si>
-  <si>
-    <t>0.06240768237001236</t>
-  </si>
-  <si>
-    <t>0.05037531067100154</t>
-  </si>
-  <si>
-    <t>0.03815061967949258</t>
-  </si>
-  <si>
-    <t>0.028363872959789753</t>
-  </si>
-  <si>
-    <t>0.012935958232238781</t>
-  </si>
-  <si>
-    <t>0.008442315022701588</t>
-  </si>
-  <si>
-    <t>0.09219829701504445</t>
-  </si>
-  <si>
-    <t>0.07478846414447393</t>
-  </si>
-  <si>
-    <t>0.06619011750060175</t>
-  </si>
-  <si>
-    <t>0.05662527064595361</t>
-  </si>
-  <si>
-    <t>0.04859066837562755</t>
-  </si>
-  <si>
-    <t>0.02998573347338219</t>
-  </si>
-  <si>
-    <t>0.018321672651462804</t>
-  </si>
-  <si>
-    <t>0.011914323590977213</t>
-  </si>
-  <si>
-    <t>0.0073362314548565555</t>
-  </si>
-  <si>
-    <t>0.004959298655834842</t>
-  </si>
-  <si>
-    <t>0.1505827107438152</t>
-  </si>
-  <si>
-    <t>0.15500219955967567</t>
-  </si>
-  <si>
-    <t>0.14593010107303178</t>
-  </si>
-  <si>
-    <t>0.1262870152943768</t>
-  </si>
-  <si>
-    <t>0.10337453153107928</t>
-  </si>
-  <si>
-    <t>0.09134613506100818</t>
-  </si>
-  <si>
-    <t>0.07034360595655614</t>
-  </si>
-  <si>
-    <t>0.05213554019791284</t>
-  </si>
-  <si>
-    <t>0.026732992253716135</t>
-  </si>
-  <si>
-    <t>0.017996160483769112</t>
-  </si>
-  <si>
-    <t>0.020815022358227842</t>
-  </si>
-  <si>
-    <t>0.03163015959706795</t>
-  </si>
-  <si>
-    <t>0.06080585623604274</t>
-  </si>
-  <si>
-    <t>0.07853803054252145</t>
-  </si>
-  <si>
-    <t>0.10320330808878145</t>
-  </si>
-  <si>
-    <t>0.1139288856146995</t>
-  </si>
-  <si>
-    <t>0.16500475032184583</t>
-  </si>
-  <si>
-    <t>0.15419425933596478</t>
-  </si>
-  <si>
-    <t>0.16364207801727576</t>
-  </si>
-  <si>
-    <t>0.13814472020046994</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="0.00000"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -265,7 +115,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -281,6 +131,1391 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-CH"/>
+              <a:t>Comparaison</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="fr-CH" baseline="0"/>
+              <a:t> des Analyzers</a:t>
+            </a:r>
+            <a:endParaRPr lang="fr-CH"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Values!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Standard</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Values!$A$2:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Values!$B$2:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.00000</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.42884120820100302</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.31401355131187503</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.22690696667523</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.18342350903333299</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.151660687515634</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.1197375797643</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.96907262735032E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0214244100205195E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.8881199536014195E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.0235946175040798E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.5453133035841399E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2F34-4FB9-858A-15E38F9A5D86}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Values!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Whitespace</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Values!$A$2:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Values!$C$2:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.00000</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.39373474146397403</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.309184071049801</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.228329679393937</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.15667579342114299</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.12379133124989999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.108412767722216</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.2416507439354794E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.4928056112526602E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.7450735770121703E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.1929953519106403E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.9398779251412198E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2F34-4FB9-858A-15E38F9A5D86}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Values!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>English</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Values!$A$2:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Values!$D$2:$D$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.00000</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.49073502662212298</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.37490445104222803</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.301345102466888</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.257922732010052</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.20942573415735299</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.17681261646163501</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.14600275045175201</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.118447425253992</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.7027612170375296E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.8086955270300106E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.8739865434204903E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-2F34-4FB9-858A-15E38F9A5D86}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Values!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>English with custom stopwords</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Values!$A$2:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Values!$E$2:$E$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.00000</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.48801760466394101</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.41599475669899699</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.32876961946224398</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.28309607143335702</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.22509877814786799</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.19010620862464001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.16197411881238399</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.12973384693662399</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.10937532792167801</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.5997230199907506E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.4232424248070893E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-2F34-4FB9-858A-15E38F9A5D86}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="547621240"/>
+        <c:axId val="547625400"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="547621240"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="547625400"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="547625400"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.5"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="547621240"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="0.1"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1249680</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>548640</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Graphique 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18B76D4E-BE45-4EF2-8F98-DF10A2D3F9F2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -580,34 +1815,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{909782AD-CA3D-4F7E-B7DB-186689D658A8}">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="27.88671875" customWidth="1"/>
-    <col min="3" max="3" width="19.77734375" customWidth="1"/>
-    <col min="4" max="4" width="20.44140625" customWidth="1"/>
-    <col min="5" max="5" width="22.6640625" customWidth="1"/>
-    <col min="6" max="6" width="22.109375" customWidth="1"/>
-    <col min="7" max="7" width="20.5546875" customWidth="1"/>
-    <col min="8" max="8" width="21.21875" customWidth="1"/>
-    <col min="9" max="9" width="21.6640625" customWidth="1"/>
-    <col min="10" max="10" width="22.109375" customWidth="1"/>
-    <col min="11" max="11" width="21.44140625" customWidth="1"/>
-    <col min="12" max="12" width="21.88671875" customWidth="1"/>
+    <col min="2" max="2" width="24.109375" customWidth="1"/>
+    <col min="3" max="3" width="25.5546875" customWidth="1"/>
+    <col min="4" max="4" width="27.21875" customWidth="1"/>
+    <col min="5" max="5" width="26.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -615,182 +1844,197 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0.42884120820100302</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0.39373474146397403</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0.49073502662212298</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0.48801760466394101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0.31401355131187503</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.309184071049801</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.37490445104222803</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0.41599475669899699</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0.22690696667523</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.228329679393937</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0.301345102466888</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0.32876961946224398</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0.18342350903333299</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.15667579342114299</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.257922732010052</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0.28309607143335702</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0.151660687515634</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.12379133124989999</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.20942573415735299</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.22509877814786799</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0.1197375797643</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.108412767722216</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0.17681261646163501</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0.19010620862464001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="B8" s="2">
+        <v>9.96907262735032E-2</v>
+      </c>
+      <c r="C8" s="2">
+        <v>7.2416507439354794E-2</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0.14600275045175201</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0.16197411881238399</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="B9" s="2">
+        <v>8.0214244100205195E-2</v>
+      </c>
+      <c r="C9" s="2">
+        <v>5.4928056112526602E-2</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0.118447425253992</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0.12973384693662399</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="B10" s="2">
+        <v>6.8881199536014195E-2</v>
+      </c>
+      <c r="C10" s="2">
+        <v>4.7450735770121703E-2</v>
+      </c>
+      <c r="D10" s="2">
+        <v>9.7027612170375296E-2</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0.10937532792167801</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="B11" s="2">
+        <v>5.0235946175040798E-2</v>
+      </c>
+      <c r="C11" s="2">
+        <v>4.1929953519106403E-2</v>
+      </c>
+      <c r="D11" s="2">
+        <v>6.8086955270300106E-2</v>
+      </c>
+      <c r="E11" s="2">
+        <v>7.5997230199907506E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>45</v>
+      <c r="B12" s="2">
+        <v>4.5453133035841399E-2</v>
+      </c>
+      <c r="C12" s="2">
+        <v>3.9398779251412198E-2</v>
+      </c>
+      <c r="D12" s="2">
+        <v>5.8739865434204903E-2</v>
+      </c>
+      <c r="E12" s="2">
+        <v>6.4232424248070893E-2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>